--- a/teaching/traditional_assets/database/data/south_korea/south_korea_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/south_korea/south_korea_banks_regional.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.165</v>
+        <v>0.0369</v>
       </c>
       <c r="E2">
-        <v>0.108</v>
+        <v>-0.0316</v>
       </c>
       <c r="F2">
-        <v>0.0075</v>
+        <v>0.031</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,103 +606,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001338014177815881</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.001058177105214877</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>746.1999999999999</v>
+        <v>717</v>
       </c>
       <c r="L2">
-        <v>0.1382005408008297</v>
+        <v>0.1258490864093518</v>
       </c>
       <c r="M2">
-        <v>134.8693</v>
+        <v>168.5334</v>
       </c>
       <c r="N2">
-        <v>0.04069805968798092</v>
+        <v>0.05920307724733903</v>
       </c>
       <c r="O2">
-        <v>0.1807414902171</v>
+        <v>0.2350535564853556</v>
       </c>
       <c r="P2">
-        <v>134.8693</v>
+        <v>162.5234</v>
       </c>
       <c r="Q2">
-        <v>0.04069805968798092</v>
+        <v>0.05709186075104507</v>
       </c>
       <c r="R2">
-        <v>0.1807414902171</v>
+        <v>0.2266714086471408</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>6.010000000000005</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.03566058715957789</v>
       </c>
       <c r="U2">
-        <v>4525.9</v>
+        <v>2683.1</v>
       </c>
       <c r="V2">
-        <v>1.365732218835813</v>
+        <v>0.9425299469561247</v>
       </c>
       <c r="W2">
-        <v>0.05935353243184611</v>
+        <v>0.05992998968727759</v>
       </c>
       <c r="X2">
-        <v>0.1649716061227074</v>
+        <v>0.2280416679541334</v>
       </c>
       <c r="Y2">
-        <v>-0.1056180736908613</v>
+        <v>-0.1681116782668558</v>
       </c>
       <c r="Z2">
-        <v>0.1654071978443733</v>
+        <v>0.160971599064227</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0443201568956012</v>
+        <v>0.03867922227675859</v>
       </c>
       <c r="AC2">
-        <v>-0.0443201568956012</v>
+        <v>-0.03867922227675859</v>
       </c>
       <c r="AD2">
-        <v>28846.4</v>
+        <v>35036.4</v>
       </c>
       <c r="AE2">
-        <v>32.87763124150467</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>28879.2776312415</v>
+        <v>35036.4</v>
       </c>
       <c r="AG2">
-        <v>24353.37763124151</v>
+        <v>32353.3</v>
       </c>
       <c r="AH2">
-        <v>0.8970620409715608</v>
+        <v>0.9248556744300229</v>
       </c>
       <c r="AI2">
-        <v>0.696620132857226</v>
+        <v>0.7193845180922032</v>
       </c>
       <c r="AJ2">
-        <v>0.8802231269672159</v>
+        <v>0.9191278409090909</v>
       </c>
       <c r="AK2">
-        <v>0.6594402546980619</v>
+        <v>0.7030238895093893</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>2090.31884057971</v>
-      </c>
-      <c r="AP2">
-        <v>1764.737509510254</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DGB Financial Group Co., Ltd. (KOSE:A139130)</t>
+          <t>Jeju Bank (KOSE:A006220)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,13 +716,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.224</v>
+        <v>0.0369</v>
       </c>
       <c r="E3">
-        <v>0.108</v>
-      </c>
-      <c r="F3">
-        <v>0.006999999999999999</v>
+        <v>-0.0316</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,34 +728,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.002856313506384797</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0023800298249604</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>314.5</v>
+        <v>19.6</v>
       </c>
       <c r="L3">
-        <v>0.1243427035148065</v>
+        <v>0.1658206429780034</v>
       </c>
       <c r="M3">
-        <v>50.73</v>
+        <v>2.7606</v>
       </c>
       <c r="N3">
-        <v>0.04869924162426802</v>
+        <v>0.02825588536335721</v>
       </c>
       <c r="O3">
-        <v>0.1613036565977742</v>
+        <v>0.1408469387755102</v>
       </c>
       <c r="P3">
-        <v>50.73</v>
+        <v>2.7606</v>
       </c>
       <c r="Q3">
-        <v>0.04869924162426802</v>
+        <v>0.02825588536335721</v>
       </c>
       <c r="R3">
-        <v>0.1613036565977742</v>
+        <v>0.1408469387755102</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,67 +764,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1484.5</v>
+        <v>55.6</v>
       </c>
       <c r="V3">
-        <v>1.425074397619276</v>
+        <v>0.5690890481064483</v>
       </c>
       <c r="W3">
-        <v>0.08223942262433974</v>
+        <v>0.04770017035775129</v>
       </c>
       <c r="X3">
-        <v>0.3427263652863796</v>
+        <v>0.1241071097666179</v>
       </c>
       <c r="Y3">
-        <v>-0.2604869426620398</v>
+        <v>-0.07640693940886663</v>
       </c>
       <c r="Z3">
-        <v>0.1670102700508694</v>
+        <v>0.1846586470863928</v>
       </c>
       <c r="AA3">
-        <v>0.0003974894237957598</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04419613471329477</v>
+        <v>0.0385495859479186</v>
       </c>
       <c r="AC3">
-        <v>-0.04379864528949901</v>
+        <v>-0.0385495859479186</v>
       </c>
       <c r="AD3">
-        <v>15567</v>
+        <v>400.7</v>
       </c>
       <c r="AE3">
-        <v>32.87763124150467</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>15599.8776312415</v>
+        <v>400.7</v>
       </c>
       <c r="AG3">
-        <v>14115.3776312415</v>
+        <v>345.1</v>
       </c>
       <c r="AH3">
-        <v>0.9374037712599796</v>
+        <v>0.8039727126805779</v>
       </c>
       <c r="AI3">
-        <v>0.7748574433426644</v>
+        <v>0.4774216609078994</v>
       </c>
       <c r="AJ3">
-        <v>0.9312730312964244</v>
+        <v>0.7793586269196026</v>
       </c>
       <c r="AK3">
-        <v>0.7569347313094474</v>
+        <v>0.440347071583514</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>1128.04347826087</v>
-      </c>
-      <c r="AP3">
-        <v>1022.853451539239</v>
       </c>
     </row>
     <row r="4">
@@ -853,13 +838,13 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.134</v>
+        <v>-0.012</v>
       </c>
       <c r="E4">
-        <v>0.07820000000000001</v>
+        <v>-0.129</v>
       </c>
       <c r="F4">
-        <v>0.008</v>
+        <v>0.031</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -874,85 +859,85 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>410.4</v>
+        <v>412.6</v>
       </c>
       <c r="L4">
-        <v>0.149437424898955</v>
+        <v>0.1371629932515541</v>
       </c>
       <c r="M4">
-        <v>81.47499999999999</v>
+        <v>106.2496</v>
       </c>
       <c r="N4">
-        <v>0.03772864088909469</v>
+        <v>0.06273965160909359</v>
       </c>
       <c r="O4">
-        <v>0.198525828460039</v>
+        <v>0.2575123606398449</v>
       </c>
       <c r="P4">
-        <v>81.47499999999999</v>
+        <v>100.2396</v>
       </c>
       <c r="Q4">
-        <v>0.03772864088909469</v>
+        <v>0.05919078830823737</v>
       </c>
       <c r="R4">
-        <v>0.198525828460039</v>
+        <v>0.2429461948618516</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>6.010000000000005</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.05656491883263565</v>
       </c>
       <c r="U4">
-        <v>2980.4</v>
+        <v>1117.6</v>
       </c>
       <c r="V4">
-        <v>1.380134290344987</v>
+        <v>0.6599350457632123</v>
       </c>
       <c r="W4">
-        <v>0.05935353243184611</v>
+        <v>0.05992998968727759</v>
       </c>
       <c r="X4">
-        <v>0.1649716061227074</v>
+        <v>0.2280416679541334</v>
       </c>
       <c r="Y4">
-        <v>-0.1056180736908613</v>
+        <v>-0.1681116782668558</v>
       </c>
       <c r="Z4">
-        <v>0.162892358063062</v>
+        <v>0.1782915871454142</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0443201568956012</v>
+        <v>0.03867922227675859</v>
       </c>
       <c r="AC4">
-        <v>-0.0443201568956012</v>
+        <v>-0.03867922227675859</v>
       </c>
       <c r="AD4">
-        <v>12989.2</v>
+        <v>15277.6</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>12989.2</v>
+        <v>15277.6</v>
       </c>
       <c r="AG4">
-        <v>10008.8</v>
+        <v>14160</v>
       </c>
       <c r="AH4">
-        <v>0.8574465135622199</v>
+        <v>0.9002127145559217</v>
       </c>
       <c r="AI4">
-        <v>0.6298526858882973</v>
+        <v>0.6498755769189868</v>
       </c>
       <c r="AJ4">
-        <v>0.8225306739643171</v>
+        <v>0.8931781625508562</v>
       </c>
       <c r="AK4">
-        <v>0.5673215358628743</v>
+        <v>0.6323997695492365</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -969,7 +954,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jeju Bank (KOSE:A006220)</t>
+          <t>DGB Financial Group Co., Ltd. (KOSE:A139130)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -978,10 +963,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.165</v>
+        <v>0.07820000000000001</v>
       </c>
       <c r="E5">
-        <v>0.279</v>
+        <v>0.0133</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -996,28 +981,28 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>21.3</v>
+        <v>284.8</v>
       </c>
       <c r="L5">
-        <v>0.1720516962843296</v>
+        <v>0.1107740178918709</v>
       </c>
       <c r="M5">
-        <v>2.6643</v>
+        <v>59.5232</v>
       </c>
       <c r="N5">
-        <v>0.02364063886424135</v>
+        <v>0.05639336807200378</v>
       </c>
       <c r="O5">
-        <v>0.1250845070422535</v>
+        <v>0.209</v>
       </c>
       <c r="P5">
-        <v>2.6643</v>
+        <v>59.5232</v>
       </c>
       <c r="Q5">
-        <v>0.02364063886424135</v>
+        <v>0.05639336807200378</v>
       </c>
       <c r="R5">
-        <v>0.1250845070422535</v>
+        <v>0.209</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1026,55 +1011,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>61</v>
+        <v>1509.9</v>
       </c>
       <c r="V5">
-        <v>0.541259982253771</v>
+        <v>1.430506868782567</v>
       </c>
       <c r="W5">
-        <v>0.05643879173290939</v>
+        <v>0.07408756275851305</v>
       </c>
       <c r="X5">
-        <v>0.09673155430481392</v>
+        <v>0.4249031693490773</v>
       </c>
       <c r="Y5">
-        <v>-0.04029276257190453</v>
+        <v>-0.3508156065905642</v>
       </c>
       <c r="Z5">
-        <v>0.1937705431209892</v>
+        <v>0.1437814923970852</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04453291982412146</v>
+        <v>0.03874398866061474</v>
       </c>
       <c r="AC5">
-        <v>-0.04453291982412146</v>
+        <v>-0.03874398866061474</v>
       </c>
       <c r="AD5">
-        <v>290.2</v>
+        <v>19358.1</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>290.2</v>
+        <v>19358.1</v>
       </c>
       <c r="AG5">
-        <v>229.2</v>
+        <v>17848.2</v>
       </c>
       <c r="AH5">
-        <v>0.7202779846115661</v>
+        <v>0.9482942744052985</v>
       </c>
       <c r="AI5">
-        <v>0.4139209813150763</v>
+        <v>0.7948143129888525</v>
       </c>
       <c r="AJ5">
-        <v>0.6703714536414156</v>
+        <v>0.9441643699381602</v>
       </c>
       <c r="AK5">
-        <v>0.3580690517106702</v>
+        <v>0.7812532829078684</v>
       </c>
       <c r="AL5">
         <v>0</v>
